--- a/todays_actions.xlsx
+++ b/todays_actions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresreality/Documents/crmai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25623D3B-8048-5E4A-9DEF-0BDDFF83B782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F33FEF-E05F-F547-8F74-0FA785035608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -243,7 +243,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -295,12 +295,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,7 +607,7 @@
   <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -905,6 +906,9 @@
       <c r="Q4" t="s">
         <v>8</v>
       </c>
+      <c r="R4" s="3">
+        <v>45740</v>
+      </c>
       <c r="AN4">
         <v>1</v>
       </c>

--- a/todays_actions.xlsx
+++ b/todays_actions.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,170 +495,160 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Notes.1</t>
+          <t>Start Date</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Technology.1</t>
+          <t>Last Date</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Start Date</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Last Date</t>
+          <t>Day 1 Action 1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Day 1 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 1</t>
+          <t>Day 1 Action 2</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 1 Complete Date</t>
+          <t>Day 1 Action 2 Complete Date</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 2</t>
+          <t>Day 4 Action 1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Day 1 Action 2 Complete Date</t>
+          <t>Day 4 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 1</t>
+          <t>Day 4 Action 2</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 1 Complete Date</t>
+          <t>Day 4 Action 2 Complete Date</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 2</t>
+          <t>Day 4 Action 3</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 2 Complete Date</t>
+          <t>Day 4 Action 3 Complete Date</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 3</t>
+          <t>Day 7 Action 1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Day 4 Action 3 Complete Date</t>
+          <t>Day 7 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 1</t>
+          <t>Day 7 Action 2</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 1 Complete Date</t>
+          <t>Day 7 Action 2 Complete date</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 2</t>
+          <t>Day 10 Action 1</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Day 7 Action 2 Complete date</t>
+          <t>Day 10 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Day 10 Action 1</t>
+          <t>Day 12 Action 1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Day 10 Action 1 Complete Date</t>
+          <t>Day 12 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Day 12 Action 1</t>
+          <t>Day 14 Action 1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Day 12 Action 1 Complete Date</t>
+          <t>Day 14 Action 1 Complete Date</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 1</t>
+          <t>Day 14 Action 2</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 1 Complete Date</t>
+          <t>Day 14 Action 2 Complete date</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 2</t>
+          <t>Pause Trigger</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Day 14 Action 2 Complete date</t>
+          <t>Days Since Start</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Pause Trigger</t>
+          <t>Next Action Column</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Days Since Start</t>
+          <t>Next Action</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Next Action Column</t>
+          <t>Days Until Next Action</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Next Action</t>
+          <t>Last Action Date</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Days Until Next Action</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Last Action Date</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Emails Sent Count</t>
         </is>
@@ -672,64 +662,54 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>KUCHT APPLIANCES, LLC</t>
+          <t>NABS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.kucht.com</t>
+          <t>nabsupply.com</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Luciana</t>
+          <t>Nolan</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Porta</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>+1 866-685-8248</t>
-        </is>
-      </c>
+          <t>McCue</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aleman@colibriconnect.io</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/lucianaporta</t>
-        </is>
-      </c>
+          <t xml:space="preserve">nmccue@nabsupply.com </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
           <t>WooCommerce</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" s="2" t="n">
+        <v>45740</v>
+      </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" s="2" t="n">
-        <v>45739</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>45734</v>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
       </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -750,282 +730,24 @@
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="inlineStr">
         <is>
           <t>Day 1 Action 1</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="AQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="AS2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Vice President</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>I&amp;M Industrials, Inc.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>http://www.iandmindustrials.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>dani</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>dani</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>+1 864-277-2450</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>davidandrealeman@gmail.com</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/tracy-mardre-a5618814</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="R3" s="2" t="n">
-        <v>45740</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Call</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>LinkedIn</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Day 4 Action 1</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AQ3" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>2025-03-24</t>
-        </is>
-      </c>
-      <c r="AS3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Vice President</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>I&amp;M Industrials, Inc.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>http://www.iandmindustrials.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>lll</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>lll</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>+1 864-277-2450</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>http://www.linkedin.com/in/tracy-mardre-a5618814</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>WooCommerce</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>45734</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>45735</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Call</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>45736</v>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>LinkedIn</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Day 4 Action 1</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="AQ4" t="n">
-        <v>-3</v>
-      </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="n">
+      <c r="AO2" t="n">
         <v>0</v>
       </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/todays_actions.xlsx
+++ b/todays_actions.xlsx
@@ -731,7 +731,7 @@
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP2" t="inlineStr"/>
       <c r="AQ2" t="inlineStr"/>
